--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="python" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="python" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,42 +429,42 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>正常登陆</t>
-        </is>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>小火猴</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{"phone":"18064125790","passwd":"1234"}</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>小火猴</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>密码错误</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>{"phone":"18064125790","passwd":"123456"}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>m</t>
         </is>
       </c>
     </row>

--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="python" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="python" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,46 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>正常充值</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{"phone":"18064125790","amt":"102"}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>小火</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
